--- a/Data/Google Trend.xlsx
+++ b/Data/Google Trend.xlsx
@@ -1,31 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlin\Documents\Personal\MADS\Milestone I\Project\Code\AmazonReviewAnalysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FC082F-3048-485A-BA11-EA28DE6B7BE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2290268-B378-4AE3-8D2E-F0465DC62762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="12" xr2:uid="{49923F77-843C-4B85-A1D8-EF4DB0D1DFD5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{49923F77-843C-4B85-A1D8-EF4DB0D1DFD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="2" r:id="rId1"/>
-    <sheet name="Momentum True Wireless 2" sheetId="1" r:id="rId2"/>
-    <sheet name="Galaxy Buds Plus" sheetId="4" r:id="rId3"/>
-    <sheet name="WH-1000XM3" sheetId="5" r:id="rId4"/>
-    <sheet name="AirPds Pro" sheetId="3" r:id="rId5"/>
-    <sheet name=" Noise Cancelling Headphones 70" sheetId="6" r:id="rId6"/>
-    <sheet name="Elite 75t" sheetId="7" r:id="rId7"/>
-    <sheet name="Soundcore Liberty Air 2" sheetId="8" r:id="rId8"/>
-    <sheet name="WF-1000XM3" sheetId="9" r:id="rId9"/>
-    <sheet name="Free" sheetId="10" r:id="rId10"/>
-    <sheet name="M-200" sheetId="11" r:id="rId11"/>
-    <sheet name="Soundcore Life Q20" sheetId="12" r:id="rId12"/>
-    <sheet name="Soundcore Liberty 2 Pro" sheetId="13" r:id="rId13"/>
+    <sheet name="Galaxy Buds Plus" sheetId="4" r:id="rId2"/>
+    <sheet name="AirPds Pro" sheetId="3" r:id="rId3"/>
+    <sheet name=" NC 700" sheetId="6" r:id="rId4"/>
+    <sheet name="Elite 75t" sheetId="7" r:id="rId5"/>
+    <sheet name="Soundcore Liberty Air 2" sheetId="8" r:id="rId6"/>
+    <sheet name="WF-1000XM3" sheetId="9" r:id="rId7"/>
+    <sheet name="Free" sheetId="10" r:id="rId8"/>
+    <sheet name="M-200" sheetId="11" r:id="rId9"/>
+    <sheet name="Soundcore Life Q20" sheetId="12" r:id="rId10"/>
+    <sheet name="Soundcore Liberty 2 Pro" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,12 +43,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Week</t>
-  </si>
-  <si>
-    <t>Sennheiser Momentum True Wireless 2: (United States)</t>
   </si>
   <si>
     <t>Period From</t>
@@ -65,34 +60,40 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Apple AirPods Pro: (United States)</t>
-  </si>
-  <si>
     <t>No Data Available</t>
   </si>
   <si>
-    <t>Sony WH-1000XM3: (United States)</t>
+    <t>"Jabra Elite 75t": (United States)</t>
   </si>
   <si>
-    <t>Bose Noise Cancelling Headphones 700: (United States)</t>
+    <t>"Apple Airpods Pro": (United States)</t>
   </si>
   <si>
-    <t>Jabra Elite 75t: (United States)</t>
+    <t>Category</t>
   </si>
   <si>
-    <t>Anker Soundcore Liberty Air 2: (United States)</t>
+    <t>Comoputer &amp; Electronics</t>
   </si>
   <si>
-    <t>Sony WF-1000XM3: (United States)</t>
+    <t>"Samsung Galaxy Earbuds Plus": (United States)</t>
   </si>
   <si>
-    <t>EarFun Free: (United States)</t>
+    <t>"Bose Noise Cancelling Headphones 700": (United States)</t>
   </si>
   <si>
-    <t>Anker Soundcore Life Q20: (United States)</t>
+    <t>"Anker Soundcore Liberty Air 2": (United States)</t>
   </si>
   <si>
-    <t>Anker Soundcore Liberty 2 Pro: (United States)</t>
+    <t>"Sony WF-1000XM3": (United States)</t>
+  </si>
+  <si>
+    <t>"EarFun Free": (United States)</t>
+  </si>
+  <si>
+    <t>"Anker Soundcore Life Q20": (United States)</t>
+  </si>
+  <si>
+    <t>"Anker Soundcore Liberty 2 Pro": (United States)</t>
   </si>
 </sst>
 </file>
@@ -445,19 +446,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47605E6B-D33B-49E9-AC4D-40BAA6C88C90}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1">
         <v>43466</v>
@@ -465,18 +466,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>43933</v>
+        <v>43953</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -485,17 +494,15 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE4C673-08A3-42B5-9623-970A150A187E}">
-  <dimension ref="A1:B67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE79AF20-3537-4607-986E-4437BC1FB7BC}">
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -503,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +686,7 @@
         <v>43618</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +694,7 @@
         <v>43625</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +702,7 @@
         <v>43632</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +734,7 @@
         <v>43660</v>
       </c>
       <c r="B29">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,7 +742,7 @@
         <v>43667</v>
       </c>
       <c r="B30">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -767,7 +774,7 @@
         <v>43695</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -775,7 +782,7 @@
         <v>43702</v>
       </c>
       <c r="B35">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,7 +790,7 @@
         <v>43709</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,7 +798,7 @@
         <v>43716</v>
       </c>
       <c r="B37">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -799,7 +806,7 @@
         <v>43723</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -815,7 +822,7 @@
         <v>43737</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +830,7 @@
         <v>43744</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,7 +846,7 @@
         <v>43758</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,7 +854,7 @@
         <v>43765</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -855,7 +862,7 @@
         <v>43772</v>
       </c>
       <c r="B45">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,7 +870,7 @@
         <v>43779</v>
       </c>
       <c r="B46">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,7 +878,7 @@
         <v>43786</v>
       </c>
       <c r="B47">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,7 +886,7 @@
         <v>43793</v>
       </c>
       <c r="B48">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -887,7 +894,7 @@
         <v>43800</v>
       </c>
       <c r="B49">
-        <v>82</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,7 +902,7 @@
         <v>43807</v>
       </c>
       <c r="B50">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,7 +910,7 @@
         <v>43814</v>
       </c>
       <c r="B51">
-        <v>32</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -911,7 +918,7 @@
         <v>43821</v>
       </c>
       <c r="B52">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,7 +934,7 @@
         <v>43835</v>
       </c>
       <c r="B54">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,7 +942,7 @@
         <v>43842</v>
       </c>
       <c r="B55">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -943,7 +950,7 @@
         <v>43849</v>
       </c>
       <c r="B56">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -951,7 +958,7 @@
         <v>43856</v>
       </c>
       <c r="B57">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -959,7 +966,7 @@
         <v>43863</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,7 +974,7 @@
         <v>43870</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -975,7 +982,7 @@
         <v>43877</v>
       </c>
       <c r="B60">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -983,7 +990,7 @@
         <v>43884</v>
       </c>
       <c r="B61">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -991,7 +998,7 @@
         <v>43891</v>
       </c>
       <c r="B62">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -999,7 +1006,7 @@
         <v>43898</v>
       </c>
       <c r="B63">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1007,7 +1014,7 @@
         <v>43905</v>
       </c>
       <c r="B64">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1015,7 +1022,7 @@
         <v>43912</v>
       </c>
       <c r="B65">
-        <v>19</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1023,7 +1030,7 @@
         <v>43919</v>
       </c>
       <c r="B66">
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1031,7 +1038,31 @@
         <v>43926</v>
       </c>
       <c r="B67">
-        <v>46</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B68">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B69">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B70">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1040,37 +1071,15 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66263DB0-BC84-40F9-A846-5BE94648C2B9}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9758D5-A347-4274-9403-6CE7558C11AB}">
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE79AF20-3537-4607-986E-4437BC1FB7BC}">
-  <dimension ref="A1:B67"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1078,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1342,7 +1351,7 @@
         <v>43695</v>
       </c>
       <c r="B34">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1366,7 +1375,7 @@
         <v>43716</v>
       </c>
       <c r="B37">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1382,7 +1391,7 @@
         <v>43730</v>
       </c>
       <c r="B39">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1390,7 +1399,7 @@
         <v>43737</v>
       </c>
       <c r="B40">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1398,7 +1407,7 @@
         <v>43744</v>
       </c>
       <c r="B41">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1406,7 +1415,7 @@
         <v>43751</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1414,7 +1423,7 @@
         <v>43758</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1422,7 +1431,7 @@
         <v>43765</v>
       </c>
       <c r="B44">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1430,7 +1439,7 @@
         <v>43772</v>
       </c>
       <c r="B45">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1438,7 +1447,7 @@
         <v>43779</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1446,7 +1455,7 @@
         <v>43786</v>
       </c>
       <c r="B47">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1454,7 +1463,7 @@
         <v>43793</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1462,7 +1471,7 @@
         <v>43800</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1470,7 +1479,7 @@
         <v>43807</v>
       </c>
       <c r="B50">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1478,7 +1487,7 @@
         <v>43814</v>
       </c>
       <c r="B51">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1486,7 +1495,7 @@
         <v>43821</v>
       </c>
       <c r="B52">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1494,7 +1503,7 @@
         <v>43828</v>
       </c>
       <c r="B53">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1502,7 +1511,7 @@
         <v>43835</v>
       </c>
       <c r="B54">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1510,7 +1519,7 @@
         <v>43842</v>
       </c>
       <c r="B55">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1534,7 +1543,7 @@
         <v>43863</v>
       </c>
       <c r="B58">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1542,7 +1551,7 @@
         <v>43870</v>
       </c>
       <c r="B59">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1558,7 +1567,7 @@
         <v>43884</v>
       </c>
       <c r="B61">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1566,7 +1575,7 @@
         <v>43891</v>
       </c>
       <c r="B62">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1574,7 +1583,7 @@
         <v>43898</v>
       </c>
       <c r="B63">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1582,7 +1591,7 @@
         <v>43905</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1590,7 +1599,7 @@
         <v>43912</v>
       </c>
       <c r="B65">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1598,7 +1607,7 @@
         <v>43919</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1606,562 +1615,31 @@
         <v>43926</v>
       </c>
       <c r="B67">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9758D5-A347-4274-9403-6CE7558C11AB}">
-  <dimension ref="A1:B67"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43471</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43478</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43485</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43492</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43499</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43506</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43513</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43520</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43527</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43534</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43541</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>43548</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43555</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>43562</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>43569</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>43576</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>43583</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>43590</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>43597</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>43604</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>43611</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>43618</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>43625</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>43632</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>43639</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>43646</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>43653</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>43660</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>43667</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>43674</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>43681</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>43688</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>43695</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>43702</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>43709</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>43716</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>43723</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>43730</v>
-      </c>
-      <c r="B39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>43737</v>
-      </c>
-      <c r="B40">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>43744</v>
-      </c>
-      <c r="B41">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>43751</v>
-      </c>
-      <c r="B42">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>43758</v>
-      </c>
-      <c r="B43">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43765</v>
-      </c>
-      <c r="B44">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43772</v>
-      </c>
-      <c r="B45">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>43779</v>
-      </c>
-      <c r="B46">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>43786</v>
-      </c>
-      <c r="B47">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>43793</v>
-      </c>
-      <c r="B48">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>43800</v>
-      </c>
-      <c r="B49">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>43807</v>
-      </c>
-      <c r="B50">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>43814</v>
-      </c>
-      <c r="B51">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>43821</v>
-      </c>
-      <c r="B52">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>43828</v>
-      </c>
-      <c r="B53">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>43835</v>
-      </c>
-      <c r="B54">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>43842</v>
-      </c>
-      <c r="B55">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>43849</v>
-      </c>
-      <c r="B56">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>43856</v>
-      </c>
-      <c r="B57">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>43863</v>
-      </c>
-      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B69">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>43870</v>
-      </c>
-      <c r="B59">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>43877</v>
-      </c>
-      <c r="B60">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>43884</v>
-      </c>
-      <c r="B61">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>43891</v>
-      </c>
-      <c r="B62">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B63">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>43905</v>
-      </c>
-      <c r="B64">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B65">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>43919</v>
-      </c>
-      <c r="B66">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>43926</v>
-      </c>
-      <c r="B67">
-        <v>42</v>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B70">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2170,17 +1648,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28FA31C-C840-466B-BA92-68FB91DF4ACB}">
-  <dimension ref="A1:B67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D7040B-A9FF-4555-99AF-7FF7210DE642}">
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2188,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2204,7 +1680,7 @@
         <v>43478</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2228,7 +1704,7 @@
         <v>43499</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2252,7 +1728,7 @@
         <v>43520</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2260,7 +1736,7 @@
         <v>43527</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2268,7 +1744,7 @@
         <v>43534</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2276,7 +1752,7 @@
         <v>43541</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2284,7 +1760,7 @@
         <v>43548</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2292,7 +1768,7 @@
         <v>43555</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2308,7 +1784,7 @@
         <v>43569</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2332,7 +1808,7 @@
         <v>43590</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2340,7 +1816,7 @@
         <v>43597</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2348,7 +1824,7 @@
         <v>43604</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2356,7 +1832,7 @@
         <v>43611</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2372,7 +1848,7 @@
         <v>43625</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2380,7 +1856,7 @@
         <v>43632</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2396,7 +1872,7 @@
         <v>43646</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2412,7 +1888,7 @@
         <v>43660</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2420,7 +1896,7 @@
         <v>43667</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2436,7 +1912,7 @@
         <v>43681</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2452,7 +1928,7 @@
         <v>43695</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2476,7 +1952,7 @@
         <v>43716</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2484,7 +1960,7 @@
         <v>43723</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2508,7 +1984,7 @@
         <v>43744</v>
       </c>
       <c r="B41">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2516,7 +1992,7 @@
         <v>43751</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2532,7 +2008,7 @@
         <v>43765</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2540,7 +2016,7 @@
         <v>43772</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2548,7 +2024,7 @@
         <v>43779</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2556,7 +2032,7 @@
         <v>43786</v>
       </c>
       <c r="B47">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2580,7 +2056,7 @@
         <v>43807</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2588,7 +2064,7 @@
         <v>43814</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2596,7 +2072,7 @@
         <v>43821</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2620,7 +2096,7 @@
         <v>43842</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2636,7 +2112,7 @@
         <v>43856</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2644,7 +2120,7 @@
         <v>43863</v>
       </c>
       <c r="B58">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2660,7 +2136,7 @@
         <v>43877</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2668,7 +2144,7 @@
         <v>43884</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2676,7 +2152,7 @@
         <v>43891</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2684,7 +2160,7 @@
         <v>43898</v>
       </c>
       <c r="B63">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2692,7 +2168,7 @@
         <v>43905</v>
       </c>
       <c r="B64">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2700,7 +2176,7 @@
         <v>43912</v>
       </c>
       <c r="B65">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2708,7 +2184,7 @@
         <v>43919</v>
       </c>
       <c r="B66">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2716,7 +2192,31 @@
         <v>43926</v>
       </c>
       <c r="B67">
-        <v>73</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B68">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B70">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2725,584 +2225,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D7040B-A9FF-4555-99AF-7FF7210DE642}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5901F0-16A3-4CE3-9238-AE98E4C7A6CB}">
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4F1F9F-3E3A-4F7A-A51B-8B2491E7BD3F}">
-  <dimension ref="A1:B67"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43471</v>
-      </c>
-      <c r="B2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43478</v>
-      </c>
-      <c r="B3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43485</v>
-      </c>
-      <c r="B4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43492</v>
-      </c>
-      <c r="B5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43499</v>
-      </c>
-      <c r="B6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43506</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43513</v>
-      </c>
-      <c r="B8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43520</v>
-      </c>
-      <c r="B9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43527</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43534</v>
-      </c>
-      <c r="B11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43541</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>43548</v>
-      </c>
-      <c r="B13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43555</v>
-      </c>
-      <c r="B14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>43562</v>
-      </c>
-      <c r="B15">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>43569</v>
-      </c>
-      <c r="B16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>43576</v>
-      </c>
-      <c r="B17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>43583</v>
-      </c>
-      <c r="B18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>43590</v>
-      </c>
-      <c r="B19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>43597</v>
-      </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>43604</v>
-      </c>
-      <c r="B21">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>43611</v>
-      </c>
-      <c r="B22">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>43618</v>
-      </c>
-      <c r="B23">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>43625</v>
-      </c>
-      <c r="B24">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>43632</v>
-      </c>
-      <c r="B25">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>43639</v>
-      </c>
-      <c r="B26">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>43646</v>
-      </c>
-      <c r="B27">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>43653</v>
-      </c>
-      <c r="B28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>43660</v>
-      </c>
-      <c r="B29">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>43667</v>
-      </c>
-      <c r="B30">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>43674</v>
-      </c>
-      <c r="B31">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>43681</v>
-      </c>
-      <c r="B32">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>43688</v>
-      </c>
-      <c r="B33">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>43695</v>
-      </c>
-      <c r="B34">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>43702</v>
-      </c>
-      <c r="B35">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>43709</v>
-      </c>
-      <c r="B36">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>43716</v>
-      </c>
-      <c r="B37">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>43723</v>
-      </c>
-      <c r="B38">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>43730</v>
-      </c>
-      <c r="B39">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>43737</v>
-      </c>
-      <c r="B40">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>43744</v>
-      </c>
-      <c r="B41">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>43751</v>
-      </c>
-      <c r="B42">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>43758</v>
-      </c>
-      <c r="B43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43765</v>
-      </c>
-      <c r="B44">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43772</v>
-      </c>
-      <c r="B45">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>43779</v>
-      </c>
-      <c r="B46">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>43786</v>
-      </c>
-      <c r="B47">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>43793</v>
-      </c>
-      <c r="B48">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>43800</v>
-      </c>
-      <c r="B49">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>43807</v>
-      </c>
-      <c r="B50">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>43814</v>
-      </c>
-      <c r="B51">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>43821</v>
-      </c>
-      <c r="B52">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>43828</v>
-      </c>
-      <c r="B53">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>43835</v>
-      </c>
-      <c r="B54">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>43842</v>
-      </c>
-      <c r="B55">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>43849</v>
-      </c>
-      <c r="B56">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>43856</v>
-      </c>
-      <c r="B57">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>43863</v>
-      </c>
-      <c r="B58">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>43870</v>
-      </c>
-      <c r="B59">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>43877</v>
-      </c>
-      <c r="B60">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>43884</v>
-      </c>
-      <c r="B61">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>43891</v>
-      </c>
-      <c r="B62">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B63">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>43905</v>
-      </c>
-      <c r="B64">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B65">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>43919</v>
-      </c>
-      <c r="B66">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>43926</v>
-      </c>
-      <c r="B67">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5901F0-16A3-4CE3-9238-AE98E4C7A6CB}">
-  <dimension ref="A1:B67"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3316,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3324,7 +2251,7 @@
         <v>43471</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3332,7 +2259,7 @@
         <v>43478</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3340,7 +2267,7 @@
         <v>43485</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3348,7 +2275,7 @@
         <v>43492</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3356,7 +2283,7 @@
         <v>43499</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3364,7 +2291,7 @@
         <v>43506</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3372,7 +2299,7 @@
         <v>43513</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3380,7 +2307,7 @@
         <v>43520</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3388,7 +2315,7 @@
         <v>43527</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3396,7 +2323,7 @@
         <v>43534</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3404,7 +2331,7 @@
         <v>43541</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3412,7 +2339,7 @@
         <v>43548</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3420,7 +2347,7 @@
         <v>43555</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3428,7 +2355,7 @@
         <v>43562</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3436,7 +2363,7 @@
         <v>43569</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3444,7 +2371,7 @@
         <v>43576</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3452,7 +2379,7 @@
         <v>43583</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3460,7 +2387,7 @@
         <v>43590</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3468,7 +2395,7 @@
         <v>43597</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3476,7 +2403,7 @@
         <v>43604</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3484,7 +2411,7 @@
         <v>43611</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3492,7 +2419,7 @@
         <v>43618</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3500,7 +2427,7 @@
         <v>43625</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3508,7 +2435,7 @@
         <v>43632</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3516,7 +2443,7 @@
         <v>43639</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3524,7 +2451,7 @@
         <v>43646</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3532,7 +2459,7 @@
         <v>43653</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3540,7 +2467,7 @@
         <v>43660</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3548,7 +2475,7 @@
         <v>43667</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3556,7 +2483,7 @@
         <v>43674</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3564,7 +2491,7 @@
         <v>43681</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3572,7 +2499,7 @@
         <v>43688</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3580,7 +2507,7 @@
         <v>43695</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3588,7 +2515,7 @@
         <v>43702</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3596,7 +2523,7 @@
         <v>43709</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3604,7 +2531,7 @@
         <v>43716</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3612,7 +2539,7 @@
         <v>43723</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3620,7 +2547,7 @@
         <v>43730</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3628,7 +2555,7 @@
         <v>43737</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3636,7 +2563,7 @@
         <v>43744</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3644,7 +2571,7 @@
         <v>43751</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3652,7 +2579,7 @@
         <v>43758</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3660,7 +2587,7 @@
         <v>43765</v>
       </c>
       <c r="B44">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3668,7 +2595,7 @@
         <v>43772</v>
       </c>
       <c r="B45">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3676,7 +2603,7 @@
         <v>43779</v>
       </c>
       <c r="B46">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3684,7 +2611,7 @@
         <v>43786</v>
       </c>
       <c r="B47">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3692,7 +2619,7 @@
         <v>43793</v>
       </c>
       <c r="B48">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3708,7 +2635,7 @@
         <v>43807</v>
       </c>
       <c r="B50">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3724,7 +2651,7 @@
         <v>43821</v>
       </c>
       <c r="B52">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3732,7 +2659,7 @@
         <v>43828</v>
       </c>
       <c r="B53">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3740,7 +2667,7 @@
         <v>43835</v>
       </c>
       <c r="B54">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3748,7 +2675,7 @@
         <v>43842</v>
       </c>
       <c r="B55">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3756,7 +2683,7 @@
         <v>43849</v>
       </c>
       <c r="B56">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3764,7 +2691,7 @@
         <v>43856</v>
       </c>
       <c r="B57">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3772,7 +2699,7 @@
         <v>43863</v>
       </c>
       <c r="B58">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3780,7 +2707,7 @@
         <v>43870</v>
       </c>
       <c r="B59">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3788,7 +2715,7 @@
         <v>43877</v>
       </c>
       <c r="B60">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3796,7 +2723,7 @@
         <v>43884</v>
       </c>
       <c r="B61">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3804,7 +2731,7 @@
         <v>43891</v>
       </c>
       <c r="B62">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3812,7 +2739,7 @@
         <v>43898</v>
       </c>
       <c r="B63">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -3820,7 +2747,7 @@
         <v>43905</v>
       </c>
       <c r="B64">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -3828,7 +2755,7 @@
         <v>43912</v>
       </c>
       <c r="B65">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -3836,7 +2763,7 @@
         <v>43919</v>
       </c>
       <c r="B66">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -3844,7 +2771,31 @@
         <v>43926</v>
       </c>
       <c r="B67">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B68">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B69">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B70">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3852,13 +2803,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68ED929-B630-43BB-8995-681B6AA2DEF5}">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3871,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4023,7 +2972,7 @@
         <v>43597</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4031,7 +2980,7 @@
         <v>43604</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4039,7 +2988,7 @@
         <v>43611</v>
       </c>
       <c r="B22">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4047,7 +2996,7 @@
         <v>43618</v>
       </c>
       <c r="B23">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -4055,7 +3004,7 @@
         <v>43625</v>
       </c>
       <c r="B24">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4063,7 +3012,7 @@
         <v>43632</v>
       </c>
       <c r="B25">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -4071,7 +3020,7 @@
         <v>43639</v>
       </c>
       <c r="B26">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4079,7 +3028,7 @@
         <v>43646</v>
       </c>
       <c r="B27">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4087,7 +3036,7 @@
         <v>43653</v>
       </c>
       <c r="B28">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -4095,7 +3044,7 @@
         <v>43660</v>
       </c>
       <c r="B29">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -4103,7 +3052,7 @@
         <v>43667</v>
       </c>
       <c r="B30">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -4111,7 +3060,7 @@
         <v>43674</v>
       </c>
       <c r="B31">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -4119,7 +3068,7 @@
         <v>43681</v>
       </c>
       <c r="B32">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -4127,7 +3076,7 @@
         <v>43688</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -4135,7 +3084,7 @@
         <v>43695</v>
       </c>
       <c r="B34">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -4143,7 +3092,7 @@
         <v>43702</v>
       </c>
       <c r="B35">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -4151,7 +3100,7 @@
         <v>43709</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -4159,7 +3108,7 @@
         <v>43716</v>
       </c>
       <c r="B37">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -4167,7 +3116,7 @@
         <v>43723</v>
       </c>
       <c r="B38">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -4175,7 +3124,7 @@
         <v>43730</v>
       </c>
       <c r="B39">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -4183,7 +3132,7 @@
         <v>43737</v>
       </c>
       <c r="B40">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -4191,7 +3140,7 @@
         <v>43744</v>
       </c>
       <c r="B41">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -4199,7 +3148,7 @@
         <v>43751</v>
       </c>
       <c r="B42">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -4207,7 +3156,7 @@
         <v>43758</v>
       </c>
       <c r="B43">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -4223,7 +3172,7 @@
         <v>43772</v>
       </c>
       <c r="B45">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -4231,7 +3180,7 @@
         <v>43779</v>
       </c>
       <c r="B46">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -4239,7 +3188,7 @@
         <v>43786</v>
       </c>
       <c r="B47">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -4247,7 +3196,7 @@
         <v>43793</v>
       </c>
       <c r="B48">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -4255,7 +3204,7 @@
         <v>43800</v>
       </c>
       <c r="B49">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -4263,7 +3212,7 @@
         <v>43807</v>
       </c>
       <c r="B50">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -4271,7 +3220,7 @@
         <v>43814</v>
       </c>
       <c r="B51">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -4279,7 +3228,7 @@
         <v>43821</v>
       </c>
       <c r="B52">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -4287,7 +3236,7 @@
         <v>43828</v>
       </c>
       <c r="B53">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -4295,7 +3244,7 @@
         <v>43835</v>
       </c>
       <c r="B54">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -4303,7 +3252,7 @@
         <v>43842</v>
       </c>
       <c r="B55">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -4311,7 +3260,7 @@
         <v>43849</v>
       </c>
       <c r="B56">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -4319,7 +3268,7 @@
         <v>43856</v>
       </c>
       <c r="B57">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -4327,7 +3276,7 @@
         <v>43863</v>
       </c>
       <c r="B58">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -4335,7 +3284,7 @@
         <v>43870</v>
       </c>
       <c r="B59">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -4343,7 +3292,7 @@
         <v>43877</v>
       </c>
       <c r="B60">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -4351,7 +3300,7 @@
         <v>43884</v>
       </c>
       <c r="B61">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -4359,7 +3308,7 @@
         <v>43891</v>
       </c>
       <c r="B62">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -4367,7 +3316,7 @@
         <v>43898</v>
       </c>
       <c r="B63">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -4375,7 +3324,7 @@
         <v>43905</v>
       </c>
       <c r="B64">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -4383,7 +3332,7 @@
         <v>43912</v>
       </c>
       <c r="B65">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -4391,7 +3340,7 @@
         <v>43919</v>
       </c>
       <c r="B66">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -4399,7 +3348,1185 @@
         <v>43926</v>
       </c>
       <c r="B67">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B68">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B69">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B70">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7255E0-CA9B-4A82-8471-18502C61A1B7}">
+  <dimension ref="A1:B70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43471</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43478</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43485</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43492</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43499</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43506</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43513</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43520</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43527</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43534</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43548</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43590</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43597</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43604</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43611</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43618</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43625</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43632</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43639</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43653</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43660</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43667</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43674</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43681</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43688</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43695</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43702</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43716</v>
+      </c>
+      <c r="B37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43723</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43730</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43737</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43744</v>
+      </c>
+      <c r="B41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43751</v>
+      </c>
+      <c r="B42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43758</v>
+      </c>
+      <c r="B43">
         <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43765</v>
+      </c>
+      <c r="B44">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43772</v>
+      </c>
+      <c r="B45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43779</v>
+      </c>
+      <c r="B46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43786</v>
+      </c>
+      <c r="B47">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43793</v>
+      </c>
+      <c r="B48">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B49">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B50">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43814</v>
+      </c>
+      <c r="B51">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43821</v>
+      </c>
+      <c r="B52">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43828</v>
+      </c>
+      <c r="B53">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43835</v>
+      </c>
+      <c r="B54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43842</v>
+      </c>
+      <c r="B55">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43849</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B57">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B58">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B59">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B60">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B61">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B62">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B64">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B65">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B66">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B67">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B68">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B69">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B70">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E11121E-D2A5-45A2-A2A8-DA5664283A1E}">
+  <dimension ref="A1:B70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43471</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43478</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43485</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43492</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43499</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43506</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43513</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43520</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43527</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43534</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43548</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43590</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43597</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43604</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43611</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43618</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43625</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43632</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43639</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43653</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43660</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43667</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43674</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43681</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43688</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43695</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43702</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43716</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43723</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43730</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43737</v>
+      </c>
+      <c r="B40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43744</v>
+      </c>
+      <c r="B41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43751</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43758</v>
+      </c>
+      <c r="B43">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43765</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43772</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43779</v>
+      </c>
+      <c r="B46">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43786</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43793</v>
+      </c>
+      <c r="B48">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B49">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B50">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43814</v>
+      </c>
+      <c r="B51">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43821</v>
+      </c>
+      <c r="B52">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43828</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43835</v>
+      </c>
+      <c r="B54">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43842</v>
+      </c>
+      <c r="B55">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43849</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B57">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B58">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B59">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B60">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B61">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B62">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B63">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B64">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B65">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B66">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B67">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B68">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B69">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B70">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4408,8 +4535,585 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7255E0-CA9B-4A82-8471-18502C61A1B7}">
-  <dimension ref="A1:B67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0817DE1-4456-4EC2-9500-30410F787836}">
+  <dimension ref="A1:B70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43471</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43478</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43485</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43492</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43499</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43506</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43513</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43520</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43527</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43534</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43548</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43590</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43597</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43604</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43611</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43618</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43625</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43632</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43639</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43653</v>
+      </c>
+      <c r="B28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43660</v>
+      </c>
+      <c r="B29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43667</v>
+      </c>
+      <c r="B30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43674</v>
+      </c>
+      <c r="B31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43681</v>
+      </c>
+      <c r="B32">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43688</v>
+      </c>
+      <c r="B33">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43695</v>
+      </c>
+      <c r="B34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43702</v>
+      </c>
+      <c r="B35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B36">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43716</v>
+      </c>
+      <c r="B37">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43723</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43730</v>
+      </c>
+      <c r="B39">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43737</v>
+      </c>
+      <c r="B40">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43744</v>
+      </c>
+      <c r="B41">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43751</v>
+      </c>
+      <c r="B42">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43758</v>
+      </c>
+      <c r="B43">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43765</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43772</v>
+      </c>
+      <c r="B45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43779</v>
+      </c>
+      <c r="B46">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43786</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43793</v>
+      </c>
+      <c r="B48">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B49">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B50">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43814</v>
+      </c>
+      <c r="B51">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43821</v>
+      </c>
+      <c r="B52">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43828</v>
+      </c>
+      <c r="B53">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43835</v>
+      </c>
+      <c r="B54">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43842</v>
+      </c>
+      <c r="B55">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43849</v>
+      </c>
+      <c r="B56">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B58">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B59">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B60">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B61">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B62">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B63">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B64">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B65">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B66">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B67">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B68">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B69">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B70">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE4C673-08A3-42B5-9623-970A150A187E}">
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -4426,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4466,7 +5170,7 @@
         <v>43499</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4514,7 +5218,7 @@
         <v>43541</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4578,7 +5282,7 @@
         <v>43597</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4618,7 +5322,7 @@
         <v>43632</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -4650,7 +5354,7 @@
         <v>43660</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -4658,7 +5362,7 @@
         <v>43667</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -4674,7 +5378,7 @@
         <v>43681</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -4698,7 +5402,7 @@
         <v>43702</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -4706,7 +5410,7 @@
         <v>43709</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -4714,7 +5418,7 @@
         <v>43716</v>
       </c>
       <c r="B37">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -4722,7 +5426,7 @@
         <v>43723</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -4730,7 +5434,7 @@
         <v>43730</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -4738,7 +5442,7 @@
         <v>43737</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -4746,7 +5450,7 @@
         <v>43744</v>
       </c>
       <c r="B41">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -4754,7 +5458,7 @@
         <v>43751</v>
       </c>
       <c r="B42">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -4762,7 +5466,7 @@
         <v>43758</v>
       </c>
       <c r="B43">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -4770,7 +5474,7 @@
         <v>43765</v>
       </c>
       <c r="B44">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -4778,7 +5482,7 @@
         <v>43772</v>
       </c>
       <c r="B45">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -4786,7 +5490,7 @@
         <v>43779</v>
       </c>
       <c r="B46">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -4794,7 +5498,7 @@
         <v>43786</v>
       </c>
       <c r="B47">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -4802,7 +5506,7 @@
         <v>43793</v>
       </c>
       <c r="B48">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -4810,7 +5514,7 @@
         <v>43800</v>
       </c>
       <c r="B49">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -4818,7 +5522,7 @@
         <v>43807</v>
       </c>
       <c r="B50">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -4826,7 +5530,7 @@
         <v>43814</v>
       </c>
       <c r="B51">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -4834,7 +5538,7 @@
         <v>43821</v>
       </c>
       <c r="B52">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -4842,7 +5546,7 @@
         <v>43828</v>
       </c>
       <c r="B53">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -4850,7 +5554,7 @@
         <v>43835</v>
       </c>
       <c r="B54">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -4866,7 +5570,7 @@
         <v>43849</v>
       </c>
       <c r="B56">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -4874,7 +5578,7 @@
         <v>43856</v>
       </c>
       <c r="B57">
-        <v>42</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -4882,7 +5586,7 @@
         <v>43863</v>
       </c>
       <c r="B58">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -4890,7 +5594,7 @@
         <v>43870</v>
       </c>
       <c r="B59">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -4898,7 +5602,7 @@
         <v>43877</v>
       </c>
       <c r="B60">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -4906,7 +5610,7 @@
         <v>43884</v>
       </c>
       <c r="B61">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -4914,7 +5618,7 @@
         <v>43891</v>
       </c>
       <c r="B62">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -4922,7 +5626,7 @@
         <v>43898</v>
       </c>
       <c r="B63">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -4930,7 +5634,7 @@
         <v>43905</v>
       </c>
       <c r="B64">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -4938,7 +5642,7 @@
         <v>43912</v>
       </c>
       <c r="B65">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -4946,7 +5650,7 @@
         <v>43919</v>
       </c>
       <c r="B66">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -4954,562 +5658,31 @@
         <v>43926</v>
       </c>
       <c r="B67">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E11121E-D2A5-45A2-A2A8-DA5664283A1E}">
-  <dimension ref="A1:B67"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43471</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43478</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43485</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43492</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43499</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43506</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43513</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43520</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43527</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43534</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43541</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>43548</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43555</v>
-      </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>43562</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>43569</v>
-      </c>
-      <c r="B16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>43576</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>43583</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>43590</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>43597</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>43604</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>43611</v>
-      </c>
-      <c r="B22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>43618</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>43625</v>
-      </c>
-      <c r="B24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>43632</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>43639</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>43646</v>
-      </c>
-      <c r="B27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>43653</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>43660</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>43667</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>43674</v>
-      </c>
-      <c r="B31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>43681</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>43688</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>43695</v>
-      </c>
-      <c r="B34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>43702</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>43709</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>43716</v>
-      </c>
-      <c r="B37">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>43723</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>43730</v>
-      </c>
-      <c r="B39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>43737</v>
-      </c>
-      <c r="B40">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>43744</v>
-      </c>
-      <c r="B41">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>43751</v>
-      </c>
-      <c r="B42">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>43758</v>
-      </c>
-      <c r="B43">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43765</v>
-      </c>
-      <c r="B44">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43772</v>
-      </c>
-      <c r="B45">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>43779</v>
-      </c>
-      <c r="B46">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>43786</v>
-      </c>
-      <c r="B47">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>43793</v>
-      </c>
-      <c r="B48">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>43800</v>
-      </c>
-      <c r="B49">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>43807</v>
-      </c>
-      <c r="B50">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>43814</v>
-      </c>
-      <c r="B51">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>43821</v>
-      </c>
-      <c r="B52">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>43828</v>
-      </c>
-      <c r="B53">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>43835</v>
-      </c>
-      <c r="B54">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>43842</v>
-      </c>
-      <c r="B55">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>43849</v>
-      </c>
-      <c r="B56">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>43856</v>
-      </c>
-      <c r="B57">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>43863</v>
-      </c>
-      <c r="B58">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>43870</v>
-      </c>
-      <c r="B59">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>43877</v>
-      </c>
-      <c r="B60">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>43884</v>
-      </c>
-      <c r="B61">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>43891</v>
-      </c>
-      <c r="B62">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B63">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>43905</v>
-      </c>
-      <c r="B64">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B65">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>43919</v>
-      </c>
-      <c r="B66">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>43926</v>
-      </c>
-      <c r="B67">
-        <v>40</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B68">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B69">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B70">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5518,553 +5691,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0817DE1-4456-4EC2-9500-30410F787836}">
-  <dimension ref="A1:B67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66263DB0-BC84-40F9-A846-5BE94648C2B9}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43471</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43478</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43485</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43492</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43499</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43506</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43513</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43520</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43527</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43534</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43541</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>43548</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43555</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>43562</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>43569</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>43576</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>43583</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>43590</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>43597</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>43604</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>43611</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>43618</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>43625</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>43632</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>43639</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>43646</v>
-      </c>
-      <c r="B27">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>43653</v>
-      </c>
-      <c r="B28">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>43660</v>
-      </c>
-      <c r="B29">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>43667</v>
-      </c>
-      <c r="B30">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>43674</v>
-      </c>
-      <c r="B31">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>43681</v>
-      </c>
-      <c r="B32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>43688</v>
-      </c>
-      <c r="B33">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>43695</v>
-      </c>
-      <c r="B34">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>43702</v>
-      </c>
-      <c r="B35">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>43709</v>
-      </c>
-      <c r="B36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>43716</v>
-      </c>
-      <c r="B37">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>43723</v>
-      </c>
-      <c r="B38">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>43730</v>
-      </c>
-      <c r="B39">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>43737</v>
-      </c>
-      <c r="B40">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>43744</v>
-      </c>
-      <c r="B41">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>43751</v>
-      </c>
-      <c r="B42">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>43758</v>
-      </c>
-      <c r="B43">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43765</v>
-      </c>
-      <c r="B44">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43772</v>
-      </c>
-      <c r="B45">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>43779</v>
-      </c>
-      <c r="B46">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>43786</v>
-      </c>
-      <c r="B47">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>43793</v>
-      </c>
-      <c r="B48">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>43800</v>
-      </c>
-      <c r="B49">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>43807</v>
-      </c>
-      <c r="B50">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>43814</v>
-      </c>
-      <c r="B51">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>43821</v>
-      </c>
-      <c r="B52">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>43828</v>
-      </c>
-      <c r="B53">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>43835</v>
-      </c>
-      <c r="B54">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>43842</v>
-      </c>
-      <c r="B55">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>43849</v>
-      </c>
-      <c r="B56">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>43856</v>
-      </c>
-      <c r="B57">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>43863</v>
-      </c>
-      <c r="B58">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>43870</v>
-      </c>
-      <c r="B59">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>43877</v>
-      </c>
-      <c r="B60">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>43884</v>
-      </c>
-      <c r="B61">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>43891</v>
-      </c>
-      <c r="B62">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B63">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>43905</v>
-      </c>
-      <c r="B64">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B65">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>43919</v>
-      </c>
-      <c r="B66">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>43926</v>
-      </c>
-      <c r="B67">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Google Trend.xlsx
+++ b/Data/Google Trend.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlin\Documents\Personal\MADS\Milestone I\Project\Code\AmazonReviewAnalysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2290268-B378-4AE3-8D2E-F0465DC62762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B5A8FF-8A3D-4B30-860D-F10CE445B71D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{49923F77-843C-4B85-A1D8-EF4DB0D1DFD5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{49923F77-843C-4B85-A1D8-EF4DB0D1DFD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="2" r:id="rId1"/>
     <sheet name="Galaxy Buds Plus" sheetId="4" r:id="rId2"/>
-    <sheet name="AirPds Pro" sheetId="3" r:id="rId3"/>
-    <sheet name=" NC 700" sheetId="6" r:id="rId4"/>
+    <sheet name="AirPods Pro" sheetId="3" r:id="rId3"/>
+    <sheet name="NC700" sheetId="6" r:id="rId4"/>
     <sheet name="Elite 75t" sheetId="7" r:id="rId5"/>
     <sheet name="Soundcore Liberty Air 2" sheetId="8" r:id="rId6"/>
     <sheet name="WF-1000XM3" sheetId="9" r:id="rId7"/>
@@ -2228,7 +2228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5901F0-16A3-4CE3-9238-AE98E4C7A6CB}">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
@@ -2807,7 +2807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68ED929-B630-43BB-8995-681B6AA2DEF5}">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
